--- a/information/meeting schedule.xlsx
+++ b/information/meeting schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Кирилл\Desktop\OPI_12\информация\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Кирилл\Desktop\OPI_12\information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF5BEF3-C443-4675-BD71-68E7E7C7D6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F061D0B0-CF6F-4A49-A779-79CE9D42C913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -93,6 +93,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -109,7 +115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -118,6 +124,7 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -401,7 +408,7 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -479,8 +486,8 @@
         <v>0</v>
       </c>
       <c r="B2" s="5"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -499,8 +506,8 @@
         <v>1</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -519,8 +526,8 @@
         <v>2</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -539,8 +546,8 @@
         <v>3</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -559,8 +566,8 @@
         <v>4</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
